--- a/AssignmentsIntellipat/src/main/resources/testdata/testdataforfb.xlsx
+++ b/AssignmentsIntellipat/src/main/resources/testdata/testdataforfb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\AssignmentsProject\AssignmentsIntellipat\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731C299-9661-4CC1-B64E-41A7CD38E792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641714E-3C33-4E3A-A972-D73E9E49611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C27BFC81-A851-4DC8-9CE8-A9696B875F45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>ankita</t>
   </si>
@@ -108,11 +108,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,35 +431,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDE7E1-D788-4B2E-9675-E9F288BCE062}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>9762977462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -472,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -480,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -488,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1989</v>
       </c>
@@ -496,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -504,27 +514,27 @@
         <v>9762977462</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>411030</v>
       </c>

--- a/AssignmentsIntellipat/src/main/resources/testdata/testdataforfb.xlsx
+++ b/AssignmentsIntellipat/src/main/resources/testdata/testdataforfb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\AssignmentsProject\AssignmentsIntellipat\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641714E-3C33-4E3A-A972-D73E9E49611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBBEB94-D174-48A4-ABDE-33AC71843E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C27BFC81-A851-4DC8-9CE8-A9696B875F45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ankita</t>
   </si>
@@ -33,55 +33,26 @@
     <t>purandare</t>
   </si>
   <si>
-    <t>9762977462</t>
+    <t>[REDMI Note 13 Pro+ 5G (Fusion Purple, 256 GB), REDMI Note 13 Pro+ 5G (Fusion Black, 256 GB), SAMSUNG Galaxy F14 5G (GOAT Green, 128 GB), Motorola G34 5G (Ocean Green, 128 GB), SAMSUNG Galaxy F14 5G (OMG Black, 128 GB), Apple iPhone 14 Plus (Starlight, 128 GB), POCO M6 Pro 5G (Forest Green, 128 GB), realme 12x 5G (Woodland Green, 128 GB), POCO M6 Pro 5G (Power Black, 128 GB), Motorola Edge 50 Pro 5G with 68W Charger (Black Beauty,..., Motorola g64 5G (Pearl Blue, 128 GB), POCO C65 (Pastel Blue, 256 GB), MOTOROLA g24 Power (Ink blue, 128 GB), REDMI 13C (Starfrost White, 128 GB), POCO C65 (Matte Black, 128 GB), POCO M6 Pro 5G (Power Black, 256 GB), MOTOROLA G04 (Concord Black, 64 GB), Motorola Edge 40 Neo (Peach Fuzz, 256 GB), POCO C61 (Diamond Dust Black, 128 GB), POCO M6 5G (Galactic Black, 256 GB), vivo T2x 5G (Aurora Gold, 128 GB), POCO M6 5G (Orion Blue, 256 GB), vivo T2x 5G (Black Gladiator, 128 GB), POCO C61 (Mystical Green, 64 GB), SAMSUNG Galaxy F34 5G (Electric Black, 128 GB), REDMI 12 5G (Pastel Blue, 128 GB), Nokia 105 Single SIM, Keypad Mobile Phone with Wireless..., LAVA A1 Josh BOL Keypad Mobile|1000 mAh Battery|Expanda..., Nokia 105 Single SIM, Keypad Mobile Phone with Wireless..., POCO M6 5G (Galactic Black, 128 GB), SAMSUNG Galaxy F15 5G (Ash Black, 128 GB), OnePlus Nord CE4 (Celadon Marble, 256 GB), Infinix SMART 8 HD (Shiny Gold, 64 GB), OnePlus Nord CE4 (Dark Chrome, 128 GB), itel Magic X Pro 4G| 2500mAh Big Battery| Expandable St..., MOTOROLA g24 Power (Ink blue, 128 GB), POCO M6 5G (Polaris Green, 128 GB), SAMSUNG Galaxy F14 5G (B.A.E. Purple, 128 GB), OnePlus Nord CE4 (Celadon Marble, 128 GB), Apple iPhone 15 (Blue, 128 GB), 2]</t>
+  </si>
+  <si>
+    <t>[₹30,999, ₹30,999, ₹9,490, ₹11,999, ₹9,490, ₹59,999, ₹9,999, ₹12,999, ₹9,999, ₹30,999, ₹13,999, ₹7,999, ₹8,999, ₹7,699, ₹6,799, ₹11,499, ₹6,999, ₹22,999, ₹6,999, ₹10,499, ₹12,999, ₹10,499, ₹14,999, ₹6,499, ₹12,999, ₹12,499, ₹1,299, ₹940, ₹9,999, ₹12,999, ₹26,905, ₹6,499, ₹24,489, ₹1,673, ₹7,999, ₹9,249, ₹8,990, ₹24,557, ₹63,999]</t>
   </si>
   <si>
     <t>Nov</t>
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>ankita211</t>
-  </si>
-  <si>
-    <t>ankitapurandare211@gmail.com</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>varian</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Ankita@1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vijaynagar colony sadashiv peth  vijaynagar colony sadashiv peth vijaynagar colony sadashiv peth </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,21 +75,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,122 +394,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDE7E1-D788-4B2E-9675-E9F288BCE062}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>9762977462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>9762977462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1989</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>9762977462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>411030</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="ankitapurandare1989@gmail.com" xr:uid="{D30815A1-B3D6-4C2C-BA98-F937DF88C10F}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{20530278-67CC-4477-A271-6AD0A4D0E3C4}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{53D6B400-4A16-45E9-8A92-54E7EFA26212}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{A67462C4-6492-4FDE-A7BA-CF566917D0D1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>